--- a/results/I3_N5_M3_T30_C200_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1170.780139535243</v>
+        <v>1073.49013953524</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>456.8000000000029</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.4899999999999</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.565770717116354</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.31506326207985</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16.38795072015898</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.624823803610443</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.957840319717377</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>203.0250000000004</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>208.35</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>208.9150000000004</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>216.4</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>218.6950000000004</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>152.2700000000008</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>160.2250000000008</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>158.9600000000008</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>168.2450000000008</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>169.7250000000008</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>242.7150000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>239.9300000000003</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>244.5300000000003</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>247.1200000000003</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>254.1050000000003</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>91.97000000000102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>91.57500000000101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>94.24000000000102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>101.065000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>100.945000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>242.7150000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>239.9300000000003</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>244.5300000000003</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>247.1200000000003</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>254.1050000000003</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.71500000000029</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>39.93000000000026</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>44.53000000000031</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>47.12000000000029</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>54.10500000000027</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
